--- a/time_series_comparison.xlsx
+++ b/time_series_comparison.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="28">
   <si>
     <t>Hospital A</t>
   </si>
@@ -98,111 +98,6 @@
     <t>37149</t>
   </si>
   <si>
-    <t>CODE_A</t>
-  </si>
-  <si>
-    <t>CODE_B</t>
-  </si>
-  <si>
-    <t>03645_1</t>
-  </si>
-  <si>
-    <t>08566_1</t>
-  </si>
-  <si>
-    <t>25037_1</t>
-  </si>
-  <si>
-    <t>26706_1</t>
-  </si>
-  <si>
-    <t>29589_1</t>
-  </si>
-  <si>
-    <t>35203_1</t>
-  </si>
-  <si>
-    <t>36135_1</t>
-  </si>
-  <si>
-    <t>45848_1</t>
-  </si>
-  <si>
-    <t>52120_1</t>
-  </si>
-  <si>
-    <t>61527_1</t>
-  </si>
-  <si>
-    <t>61695_1</t>
-  </si>
-  <si>
-    <t>65366_1</t>
-  </si>
-  <si>
-    <t>75490_1</t>
-  </si>
-  <si>
-    <t>88310_1</t>
-  </si>
-  <si>
-    <t>91226_1</t>
-  </si>
-  <si>
-    <t>97789_1</t>
-  </si>
-  <si>
-    <t>75761_1</t>
-  </si>
-  <si>
-    <t>22634_2</t>
-  </si>
-  <si>
-    <t>25037_2</t>
-  </si>
-  <si>
-    <t>03645_2</t>
-  </si>
-  <si>
-    <t>22634_1</t>
-  </si>
-  <si>
-    <t>36135_2</t>
-  </si>
-  <si>
-    <t>45848_2</t>
-  </si>
-  <si>
-    <t>35203_2</t>
-  </si>
-  <si>
-    <t>75490_2</t>
-  </si>
-  <si>
-    <t>75761_2</t>
-  </si>
-  <si>
-    <t>37149_2</t>
-  </si>
-  <si>
-    <t>88310_2</t>
-  </si>
-  <si>
-    <t>29589_2</t>
-  </si>
-  <si>
-    <t>69236_1</t>
-  </si>
-  <si>
-    <t>69236_2</t>
-  </si>
-  <si>
-    <t>26706_2</t>
-  </si>
-  <si>
-    <t>91226_2</t>
-  </si>
-  <si>
     <t>47789</t>
   </si>
   <si>
@@ -212,64 +107,7 @@
     <t>91266</t>
   </si>
   <si>
-    <t>22634_3</t>
-  </si>
-  <si>
-    <t>03645_3</t>
-  </si>
-  <si>
-    <t>08566_3</t>
-  </si>
-  <si>
-    <t>37149_3</t>
-  </si>
-  <si>
-    <t>47789_3</t>
-  </si>
-  <si>
-    <t>37149_1</t>
-  </si>
-  <si>
-    <t>91226_3</t>
-  </si>
-  <si>
-    <t>69236_3</t>
-  </si>
-  <si>
-    <t>26706_4</t>
-  </si>
-  <si>
-    <t>08566_4</t>
-  </si>
-  <si>
-    <t>36135_4</t>
-  </si>
-  <si>
-    <t>35203_4</t>
-  </si>
-  <si>
-    <t>91226_4</t>
-  </si>
-  <si>
-    <t>03645_4</t>
-  </si>
-  <si>
-    <t>65366_4</t>
-  </si>
-  <si>
-    <t>45848_4</t>
-  </si>
-  <si>
-    <t>75791_4</t>
-  </si>
-  <si>
-    <t>75761_4</t>
-  </si>
-  <si>
-    <t>25037_4</t>
-  </si>
-  <si>
-    <t>91266_4</t>
+    <t>36125</t>
   </si>
 </sst>
 </file>
@@ -593,20 +431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F78" sqref="A1:F78"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -619,14 +457,8 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -639,14 +471,8 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -659,14 +485,8 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -679,14 +499,8 @@
       <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -699,14 +513,8 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -719,14 +527,8 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -739,14 +541,8 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -759,14 +555,8 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -779,14 +569,8 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -799,14 +583,8 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -819,14 +597,8 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -839,14 +611,8 @@
       <c r="D12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -859,14 +625,8 @@
       <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -879,14 +639,8 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -899,14 +653,8 @@
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -919,14 +667,8 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -939,14 +681,8 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -959,14 +695,8 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -979,14 +709,8 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -999,14 +723,8 @@
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1019,14 +737,8 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1039,14 +751,8 @@
       <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1059,14 +765,8 @@
       <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1079,14 +779,8 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1099,14 +793,8 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1119,14 +807,8 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1139,14 +821,8 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1159,14 +835,8 @@
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1179,14 +849,8 @@
       <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1199,14 +863,8 @@
       <c r="D30" s="1">
         <v>2</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -1219,14 +877,8 @@
       <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -1239,14 +891,8 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -1259,14 +905,8 @@
       <c r="D33" s="1">
         <v>2</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -1279,14 +919,8 @@
       <c r="D34" s="1">
         <v>2</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -1299,14 +933,8 @@
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1319,14 +947,8 @@
       <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -1339,14 +961,8 @@
       <c r="D37" s="1">
         <v>2</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -1359,14 +975,8 @@
       <c r="D38" s="1">
         <v>3</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -1379,14 +989,8 @@
       <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,14 +1003,8 @@
       <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1419,14 +1017,8 @@
       <c r="D41" s="1">
         <v>3</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1439,19 +1031,13 @@
       <c r="D42" s="1">
         <v>3</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1459,14 +1045,8 @@
       <c r="D43" s="1">
         <v>3</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -1479,14 +1059,8 @@
       <c r="D44" s="1">
         <v>3</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1499,14 +1073,8 @@
       <c r="D45" s="1">
         <v>3</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1519,14 +1087,8 @@
       <c r="D46" s="1">
         <v>3</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
@@ -1539,14 +1101,8 @@
       <c r="D47" s="1">
         <v>3</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -1559,14 +1115,8 @@
       <c r="D48" s="1">
         <v>3</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1579,14 +1129,8 @@
       <c r="D49" s="1">
         <v>3</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -1599,14 +1143,8 @@
       <c r="D50" s="1">
         <v>3</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -1619,14 +1157,8 @@
       <c r="D51" s="1">
         <v>3</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -1639,14 +1171,8 @@
       <c r="D52" s="1">
         <v>3</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
@@ -1659,14 +1185,8 @@
       <c r="D53" s="1">
         <v>3</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>15</v>
       </c>
@@ -1679,14 +1199,8 @@
       <c r="D54" s="1">
         <v>3</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -1699,14 +1213,8 @@
       <c r="D55" s="1">
         <v>4</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -1719,14 +1227,8 @@
       <c r="D56" s="1">
         <v>4</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,14 +1241,8 @@
       <c r="D57" s="1">
         <v>4</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
@@ -1759,14 +1255,8 @@
       <c r="D58" s="1">
         <v>4</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
@@ -1779,14 +1269,8 @@
       <c r="D59" s="1">
         <v>4</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>11</v>
       </c>
@@ -1799,14 +1283,8 @@
       <c r="D60" s="1">
         <v>4</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -1819,14 +1297,8 @@
       <c r="D61" s="1">
         <v>4</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -1839,14 +1311,8 @@
       <c r="D62" s="1">
         <v>4</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -1859,14 +1325,8 @@
       <c r="D63" s="1">
         <v>4</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
@@ -1879,14 +1339,8 @@
       <c r="D64" s="1">
         <v>4</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -1899,19 +1353,13 @@
       <c r="D65" s="1">
         <v>4</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1919,14 +1367,8 @@
       <c r="D66" s="1">
         <v>4</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -1939,14 +1381,8 @@
       <c r="D67" s="1">
         <v>4</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -1959,14 +1395,8 @@
       <c r="D68" s="1">
         <v>4</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -1979,14 +1409,8 @@
       <c r="D69" s="1">
         <v>4</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -1999,14 +1423,8 @@
       <c r="D70" s="1">
         <v>4</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
@@ -2019,14 +1437,8 @@
       <c r="D71" s="1">
         <v>4</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
@@ -2039,14 +1451,8 @@
       <c r="D72" s="1">
         <v>4</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -2059,14 +1465,8 @@
       <c r="D73" s="1">
         <v>4</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
@@ -2079,14 +1479,8 @@
       <c r="D74" s="1">
         <v>4</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -2099,19 +1493,13 @@
       <c r="D75" s="1">
         <v>4</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
@@ -2119,14 +1507,8 @@
       <c r="D76" s="1">
         <v>4</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -2139,14 +1521,8 @@
       <c r="D77" s="1">
         <v>4</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -2159,17 +1535,1817 @@
       <c r="D78" s="1">
         <v>4</v>
       </c>
-      <c r="E78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2</v>
+      </c>
+      <c r="D118" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2</v>
+      </c>
+      <c r="D119" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2</v>
+      </c>
+      <c r="D126" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2</v>
+      </c>
+      <c r="D133" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2</v>
+      </c>
+      <c r="D134" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="1">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="1">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="1">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="1">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="1">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="1">
+        <v>3</v>
+      </c>
+      <c r="D153" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="1">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="1">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="1">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3</v>
+      </c>
+      <c r="D161" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="1">
+        <v>3</v>
+      </c>
+      <c r="D162" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="1">
+        <v>3</v>
+      </c>
+      <c r="D163" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" s="1">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="1">
+        <v>4</v>
+      </c>
+      <c r="D165" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="1">
+        <v>4</v>
+      </c>
+      <c r="D166" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="1">
+        <v>4</v>
+      </c>
+      <c r="D167" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="1">
+        <v>4</v>
+      </c>
+      <c r="D168" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="1">
+        <v>4</v>
+      </c>
+      <c r="D169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="1">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="1">
+        <v>4</v>
+      </c>
+      <c r="D171" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="1">
+        <v>4</v>
+      </c>
+      <c r="D172" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" s="1">
+        <v>4</v>
+      </c>
+      <c r="D173" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="1">
+        <v>4</v>
+      </c>
+      <c r="D174" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="1">
+        <v>4</v>
+      </c>
+      <c r="D175" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" s="1">
+        <v>4</v>
+      </c>
+      <c r="D176" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="1">
+        <v>4</v>
+      </c>
+      <c r="D177" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="1">
+        <v>4</v>
+      </c>
+      <c r="D178" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="1">
+        <v>4</v>
+      </c>
+      <c r="D179" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="1">
+        <v>4</v>
+      </c>
+      <c r="D180" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="1">
+        <v>4</v>
+      </c>
+      <c r="D181" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4</v>
+      </c>
+      <c r="D182" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="1">
+        <v>4</v>
+      </c>
+      <c r="D183" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184" s="1">
+        <v>4</v>
+      </c>
+      <c r="D184" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="1">
+        <v>4</v>
+      </c>
+      <c r="D185" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" s="1">
+        <v>4</v>
+      </c>
+      <c r="D186" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="1">
+        <v>4</v>
+      </c>
+      <c r="D187" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="1">
+        <v>4</v>
+      </c>
+      <c r="D188" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="1">
+        <v>4</v>
+      </c>
+      <c r="D189" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="1">
+        <v>4</v>
+      </c>
+      <c r="D190" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="1">
+        <v>4</v>
+      </c>
+      <c r="D191" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="1">
+        <v>4</v>
+      </c>
+      <c r="D192" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="1">
+        <v>4</v>
+      </c>
+      <c r="D193" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="1">
+        <v>4</v>
+      </c>
+      <c r="D194" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>71</v>
+      <c r="C195" s="1">
+        <v>4</v>
+      </c>
+      <c r="D195" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="1">
+        <v>4</v>
+      </c>
+      <c r="D196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" s="1">
+        <v>4</v>
+      </c>
+      <c r="D197" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="1">
+        <v>4</v>
+      </c>
+      <c r="D198" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="1">
+        <v>4</v>
+      </c>
+      <c r="D199" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="1">
+        <v>4</v>
+      </c>
+      <c r="D200" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="1">
+        <v>4</v>
+      </c>
+      <c r="D201" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1">
+        <v>4</v>
+      </c>
+      <c r="D202" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="1">
+        <v>4</v>
+      </c>
+      <c r="D203" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="1">
+        <v>4</v>
+      </c>
+      <c r="D204" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" s="1">
+        <v>4</v>
+      </c>
+      <c r="D205" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" s="1">
+        <v>4</v>
+      </c>
+      <c r="D206" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="1">
+        <v>4</v>
+      </c>
+      <c r="D207" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B78" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B207" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>